--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 18.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">  While we were thus preparing our designs, and had first, by main strength, heaved the boat upon the beach, so high that the tide would not float her off at high water mark, and besides, had broke a hole in her bottom too big to be quickly stopped, and were set down musing what we should do, we heard the ship fire a gun, and make a waft with her ensign as a signal for the boat to come on board—but no boat stirred; and they fired several times, making other signals for the boat.</t>
   </si>
@@ -44,12 +44,6 @@
     <t>“And where, sir,” said I, “is your belief of my being preserved here on purpose to save your life, which elevated you a little while ago?</t>
   </si>
   <si>
-    <t>For my part,” said I, “there seems to be but one thing amiss in all the prospect of it.” “What is that?” say he.</t>
-  </si>
-  <si>
-    <t>“Why,” said I, “it is, that as you say there are three or four honest fellows among them which should be spared, had they been all of the wicked part of the crew I should have thought God’s providence had singled them out to deliver them into your hands; for depend upon it, every man that comes ashore is our own, and shall die or live as they behave to us.” As I spoke this with a raised voice and cheerful countenance, I found it greatly encouraged him; so we set vigorously to our business.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> We had, upon the first appearance of the boat’s coming from the ship, considered of separating our prisoners; and we had, indeed, secured them effectually.</t>
   </si>
   <si>
@@ -200,15 +194,9 @@
     <t>Tom Smith!” Tom Smith answered immediately, “Is that Robinson?” for it seems he knew the voice.</t>
   </si>
   <si>
-    <t>The other answered, “Ay, ay; for God’s sake, Tom Smith, throw down your arms and yield, or you are all dead men this moment.” “Who must we yield to?</t>
-  </si>
-  <si>
     <t>Where are they?” says Smith again.</t>
   </si>
   <si>
-    <t>“Here they are,” says he; “here’s our captain and fifty men with him, have been hunting you these two hours; the boatswain is killed; Will Fry is wounded, and I am a prisoner; and if you do not yield you are all lost.” “Will they give us quarter, then?” says Tom Smith, “and we will yield.” “I’ll go and ask, if you promise to yield,” said Robinson: so he asked the captain, and the captain himself then calls out, “You, Smith, you know my voice; if you lay down your arms immediately and submit, you shall have your lives, all but Will Atkins.”  Upon this Will Atkins cried out, “For God’s sake, captain, give me quarter; what have I done?</t>
-  </si>
-  <si>
     <t>They have all been as bad as I:” which, by the way, was not true; for it seems this Will Atkins was the first man that laid hold of the captain when they first mutinied, and used him barbarously in tying his hands and giving him injurious language.</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t xml:space="preserve"> Though this was all but a fiction of his own, yet it had its desired effect; Atkins fell upon his knees to beg the captain to intercede with the governor for his life; and all the rest begged of him, for God’s sake, that they might not be sent to England.</t>
   </si>
   <si>
-    <t xml:space="preserve"> It now occurred to me that the time of our deliverance was come, and that it would be a most easy thing to bring these fellows in to be hearty in getting possession of the ship; so I retired in the dark from them, that they might not see what kind of a governor they had, and called the captain to me; when I called, at a good distance, one of the men was ordered to speak again, and say to the captain, “Captain, the commander calls for you;” and presently the captain replied, “Tell his excellency I am just coming.” This more perfectly amazed them, and they all believed that the commander was just by, with his fifty men.</t>
-  </si>
-  <si>
     <t>Upon the captain coming to me, I told him my project for seizing the ship, which he liked wonderfully well, and resolved to put it in execution the next morning.</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
     <t xml:space="preserve"> Any one may guess how readily such a proposal would be accepted by men in their condition; they fell down on their knees to the captain, and promised, with the deepest imprecations, that they would be faithful to him to the last drop, and that they should owe their lives to him, and would go with him all over the world; that they would own him as a father to them as long as they lived.</t>
   </si>
   <si>
-    <t>“Well,” says the captain, “I must go and tell the governor what you say, and see what I can do to bring him to consent to it.” So he brought me an account of the temper he found them in, and that he verily believed they would be faithful.</t>
-  </si>
-  <si>
     <t>However, that we might be very secure, I told him he should go back again and choose out those five, and tell them, that they might see he did not want men, that he would take out those five to be his assistants, and that the governor would keep the other two, and the three that were sent prisoners to the castle (my cave), as hostages for the fidelity of those five; and that if they proved unfaithful in the execution, the five hostages should be hanged in chains alive on the shore.</t>
   </si>
   <si>
@@ -299,9 +281,6 @@
     <t>Having thus heard the signal plainly, I laid me down; and it having been a day of great fatigue to me, I slept very sound, till I was surprised with the noise of a gun; and presently starting up, I heard a man call me by the name of “Governor!</t>
   </si>
   <si>
-    <t>Governor!” and presently I knew the captain’s voice; when, climbing up to the top of the hill, there he stood, and, pointing to the ship, he embraced me in his arms, “My dear friend and deliverer,” says he, “there’s your ship; for she is all yours, and so are we, and all that belong to her.” I cast my eyes to the ship, and there she rode, within little more than half a mile of the shore; for they had weighed her anchor as soon as they were masters of her, and, the weather being fair, had brought her to an anchor just against the mouth of the little creek; and the tide being up, the captain had brought the pinnace in near the place where I had first landed my rafts, and so landed just at my door.</t>
-  </si>
-  <si>
     <t>I was at first ready to sink down with the surprise; for I saw my deliverance, indeed, visibly put into my hands, all things easy, and a large ship just ready to carry me away whither I pleased to go.</t>
   </si>
   <si>
@@ -344,9 +323,6 @@
     <t>Upon this, I told him that, if he desired it, I would undertake to bring the two men he spoke of to make it their own request that he should leave them upon the island.</t>
   </si>
   <si>
-    <t>“I should be very glad of that,” says the captain, “with all my heart.” “Well,” says I, “I will send for them up and talk with them for you.” So I caused Friday and the two hostages, for they were now discharged, their comrades having performed their promise; I say, I caused them to go to the cave, and bring up the five men, pinioned as they were, to the bower, and keep them there till I came.</t>
-  </si>
-  <si>
     <t>After some time, I came thither dressed in my new habit; and now I was called governor again.</t>
   </si>
   <si>
@@ -426,6 +402,63 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>“What is that?” say he.</t>
+  </si>
+  <si>
+    <t>As I spoke this with a raised voice and cheerful countenance, I found it greatly encouraged him; so we set vigorously to our business.</t>
+  </si>
+  <si>
+    <t>“Who must we yield to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upon this Will Atkins cried out, “For God’s sake, captain, give me quarter; what have I done?</t>
+  </si>
+  <si>
+    <t>This more perfectly amazed them, and they all believed that the commander was just by, with his fifty men.</t>
+  </si>
+  <si>
+    <t>So he brought me an account of the temper he found them in, and that he verily believed they would be faithful.</t>
+  </si>
+  <si>
+    <t>I cast my eyes to the ship, and there she rode, within little more than half a mile of the shore; for they had weighed her anchor as soon as they were masters of her, and, the weather being fair, had brought her to an anchor just against the mouth of the little creek; and the tide being up, the captain had brought the pinnace in near the place where I had first landed my rafts, and so landed just at my door.</t>
+  </si>
+  <si>
+    <t>So I caused Friday and the two hostages, for they were now discharged, their comrades having performed their promise; I say, I caused them to go to the cave, and bring up the five men, pinioned as they were, to the bower, and keep them there till I came.</t>
+  </si>
+  <si>
+    <t>For my part,” said I, “there seems to be but one thing amiss in all the prospect of it.”</t>
+  </si>
+  <si>
+    <t>“Why,” said I, “it is, that as you say there are three or four honest fellows among them which should be spared, had they been all of the wicked part of the crew I should have thought God’s providence had singled them out to deliver them into your hands; for depend upon it, every man that comes ashore is our own, and shall die or live as they behave to us.”</t>
+  </si>
+  <si>
+    <t>The other answered, “Ay, ay; for God’s sake, Tom Smith, throw down your arms and yield, or you are all dead men this moment.”</t>
+  </si>
+  <si>
+    <t>“Here they are,” says he; “here’s our captain and fifty men with him, have been hunting you these two hours; the boatswain is killed; Will Fry is wounded, and I am a prisoner; and if you do not yield you are all lost.”</t>
+  </si>
+  <si>
+    <t>“Will they give us quarter, then?” says Tom Smith, “and we will yield.”</t>
+  </si>
+  <si>
+    <t>“I’ll go and ask, if you promise to yield,” said Robinson: so he asked the captain, and the captain himself then calls out, “You, Smith, you know my voice; if you lay down your arms immediately and submit, you shall have your lives, all but Will Atkins.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It now occurred to me that the time of our deliverance was come, and that it would be a most easy thing to bring these fellows in to be hearty in getting possession of the ship; so I retired in the dark from them, that they might not see what kind of a governor they had, and called the captain to me; when I called, at a good distance, one of the men was ordered to speak again, and say to the captain, “Captain, the commander calls for you;” and presently the captain replied, “Tell his excellency I am just coming.”</t>
+  </si>
+  <si>
+    <t>“Well,” says the captain, “I must go and tell the governor what you say, and see what I can do to bring him to consent to it.”</t>
+  </si>
+  <si>
+    <t>Governor!” and presently I knew the captain’s voice; when, climbing up to the top of the hill, there he stood, and, pointing to the ship, he embraced me in his arms, “My dear friend and deliverer,” says he, “there’s your ship; for she is all yours, and so are we, and all that belong to her.”</t>
+  </si>
+  <si>
+    <t>“I should be very glad of that,” says the captain, “with all my heart.”</t>
+  </si>
+  <si>
+    <t>“Well,” says I, “I will send for them up and talk with them for you.”</t>
   </si>
 </sst>
 </file>
@@ -743,20 +776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A133"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +981,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1045,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1053,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1077,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1101,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1109,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1125,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1133,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1149,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1165,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1173,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1181,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1189,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1197,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1213,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1221,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1229,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1237,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1245,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1253,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1261,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1269,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1285,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1293,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1301,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1317,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1325,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1341,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1349,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1357,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1365,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1373,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1381,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1389,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1397,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1405,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1413,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1421,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1445,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1453,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1461,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1469,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1485,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1493,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1501,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1509,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1517,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1525,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1533,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1541,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1549,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1557,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1565,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1573,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1581,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1597,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1605,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1613,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1621,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1629,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1637,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1645,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1653,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1661,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1669,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1677,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1685,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1693,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1701,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1709,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1717,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1725,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1733,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1741,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1749,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1757,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1765,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1773,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1781,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1789,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1797,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1805,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1813,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1821,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1829,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1837,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1845,95 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
